--- a/outputs/outperformance.xlsx
+++ b/outputs/outperformance.xlsx
@@ -456,37 +456,37 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1675054846835838</v>
+        <v>-0.1014498015221799</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1636683359043037</v>
+        <v>-0.004298632242113798</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1266782114757333</v>
+        <v>-0.1764483179748445</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1677436996032099</v>
+        <v>-0.03704488548387895</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7145499389330037</v>
+        <v>0.5424933017368545</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2078061248566231</v>
+        <v>-0.3483997890283307</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3840263231347335</v>
+        <v>0.02882171812868239</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.3311871597487191</v>
+        <v>0.3724078955536167</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2479111539892746</v>
+        <v>-0.06198631201144565</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1582001925184242</v>
+        <v>-1.95748049505588</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2992287713242997</v>
+        <v>0.3398290965197098</v>
       </c>
     </row>
     <row r="3">
@@ -497,37 +497,37 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1437247512895216</v>
+        <v>-0.3251547915878432</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.361254657775409</v>
+        <v>0.1481789530726816</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.478696484693499</v>
+        <v>-0.1280136405857694</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8220499208640279</v>
+        <v>0.1239553757617533</v>
       </c>
       <c r="G3" t="n">
-        <v>1.534956674404611</v>
+        <v>0.8941861805673083</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.9507665601252733</v>
+        <v>0.03814114661730883</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.166532145484353</v>
+        <v>-0.4251959275780741</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.16438436199622</v>
+        <v>0.8773647496340542</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7035593791441748</v>
+        <v>-0.084303640647092</v>
       </c>
       <c r="L3" t="n">
-        <v>1.980929043869383</v>
+        <v>-3.808591867838291</v>
       </c>
       <c r="M3" t="n">
-        <v>-3.651436379671482</v>
+        <v>1.118471141366099</v>
       </c>
     </row>
     <row r="4">
@@ -538,37 +538,37 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.1534695453779622</v>
+        <v>-0.7909427573011025</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2450302276637982</v>
+        <v>-0.09200447355101615</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.8592916986689687</v>
+        <v>-0.7072248548488091</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5006298994977267</v>
+        <v>-0.04204534001296334</v>
       </c>
       <c r="G4" t="n">
-        <v>2.007852759087354</v>
+        <v>2.377435877601563</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.60290434158239</v>
+        <v>-0.2360825738701717</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.789936510070966</v>
+        <v>-3.068242518174258</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.705730395511779</v>
+        <v>-0.1306452463718342</v>
       </c>
       <c r="K4" t="n">
-        <v>0.524264048285225</v>
+        <v>-0.1611525627603123</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5071487596148011</v>
+        <v>-3.816099869890487</v>
       </c>
       <c r="M4" t="n">
-        <v>-3.157498132590928</v>
+        <v>-1.130861331586144</v>
       </c>
     </row>
     <row r="5">
@@ -579,37 +579,37 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.5230028957495195</v>
+        <v>-0.619462737100814</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2278418749125907</v>
+        <v>0.3123223774254897</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.8412514497987902</v>
+        <v>-0.3161459340758013</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01715574604858228</v>
+        <v>0.1168638119744382</v>
       </c>
       <c r="G5" t="n">
-        <v>1.023666243618585</v>
+        <v>1.165558098105889</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.232136516001631</v>
+        <v>-1.133427336932098</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.006634433271381</v>
+        <v>-2.787272713319324</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.098100111220224</v>
+        <v>-0.1251017220096353</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5097710947928329</v>
+        <v>-0.06128557859166428</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.45594925337131</v>
+        <v>-5.406609340606341</v>
       </c>
       <c r="M5" t="n">
-        <v>-4.036084926957502</v>
+        <v>-0.06307990344230563</v>
       </c>
     </row>
     <row r="6">
@@ -620,37 +620,37 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.101297853974287</v>
+        <v>-2.015829499669683</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3498554937523979</v>
+        <v>-0.7949578559213135</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.568612000532794</v>
+        <v>-1.394434082777019</v>
       </c>
       <c r="F6" t="n">
-        <v>1.13201196674111</v>
+        <v>1.334930734256413</v>
       </c>
       <c r="G6" t="n">
-        <v>1.560906043821927</v>
+        <v>-1.57175418577667</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.355300536817427</v>
+        <v>-1.996265866123863</v>
       </c>
       <c r="I6" t="n">
-        <v>-6.399917156514263</v>
+        <v>-5.834707070587831</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.023536691344824</v>
+        <v>0.2345879399825267</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1058341627669495</v>
+        <v>-0.7400711181697074</v>
       </c>
       <c r="L6" t="n">
-        <v>-7.607592798349829</v>
+        <v>-9.29325863300001</v>
       </c>
       <c r="M6" t="n">
-        <v>-4.807630835253553</v>
+        <v>-2.614532489909299</v>
       </c>
     </row>
     <row r="7">
@@ -661,37 +661,37 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.2245316479516867</v>
+        <v>-0.3848169996572235</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07350766708508816</v>
+        <v>-0.1069831284718319</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3745923383398461</v>
+        <v>-0.3072903339198688</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2218767906594914</v>
+        <v>0.2342638477219571</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2964365981291643</v>
+        <v>-0.322204328610485</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.4362555312640236</v>
+        <v>-0.3409918856266996</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.903850298772025</v>
+        <v>-1.247764610678042</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2157951365854688</v>
+        <v>0.04999113158700405</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0202325194904862</v>
+        <v>-0.1289650951224796</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.325611189801717</v>
+        <v>-1.473840504439615</v>
       </c>
       <c r="M7" t="n">
-        <v>-1.133084347808176</v>
+        <v>-0.5386458857125009</v>
       </c>
     </row>
     <row r="8">
@@ -706,34 +706,34 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.02649242028227954</v>
+        <v>0.03523207401696232</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1209499480429519</v>
+        <v>0.1707156334231804</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4040288969158111</v>
+        <v>-0.04897352782279507</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1987088444157538</v>
+        <v>0.07293463143254549</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.03961995249406126</v>
+        <v>0.03462434712735993</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.08627763393746271</v>
+        <v>-0.02637449449825977</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01044399596367318</v>
+        <v>-0.03540280097648716</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.2076920270023726</v>
+        <v>-0.01690357023690286</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.7179287471916159</v>
+        <v>-1.205272360457297</v>
       </c>
       <c r="M8" t="n">
         <v>-0</v>
@@ -747,34 +747,34 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.1083115525352854</v>
+        <v>0.08030840400925246</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2765301350883262</v>
+        <v>0.307181940700808</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.911169769380381</v>
+        <v>-0.3038357644516427</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.8021949644932261</v>
+        <v>0.09449791376912296</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.6682565320665065</v>
+        <v>0.04635194857372462</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07969328818960389</v>
+        <v>-0.1256540957396791</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1947998654557692</v>
+        <v>-0.05372478478735724</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.8470790001824506</v>
+        <v>0.1198164831498179</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9464619664063345</v>
+        <v>-1.928786146603902</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.08181913225300527</v>
+        <v>0.02422205088666231</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1695687564946291</v>
+        <v>0.3050579514824803</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.472492358988605</v>
+        <v>-2.300756347920036</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5659522272433885</v>
+        <v>-0.172506258692635</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.6425035629453649</v>
+        <v>-0.3289312977099215</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0326946823341951</v>
+        <v>-0.09584877268880089</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1702758156744034</v>
+        <v>0.02151355518437605</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.5333661740558309</v>
+        <v>-0.2326726726726727</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.2006633144324393</v>
+        <v>-2.390398453261602</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -829,34 +829,34 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.008050182958703798</v>
+        <v>0.05815882806476527</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.02251818496709555</v>
+        <v>0.4083369272237197</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.920727979994439</v>
+        <v>-1.916963803349533</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.4202324080051683</v>
+        <v>-0.1896300417246252</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3968598574821814</v>
+        <v>-0.08153475291281358</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.2676877116112307</v>
+        <v>-0.3568061694723975</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1253279515640771</v>
+        <v>-0.02464602338429955</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.1995365809158869</v>
+        <v>-0.1118618618618612</v>
       </c>
       <c r="K11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.948663742377218</v>
+        <v>-3.566765299260248</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -870,34 +870,34 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1492943021432301</v>
+        <v>0.2287494217424826</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6937989262209892</v>
+        <v>0.9769022911051198</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.604084467907763</v>
+        <v>-2.428687196110217</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05666881859265176</v>
+        <v>0.3640389429763641</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1736674584323073</v>
+        <v>0.1239775010044249</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.7610595498904633</v>
+        <v>-0.8454848114360983</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.07488731920618831</v>
+        <v>-0.1657844019015801</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6540667761357358</v>
+        <v>0.8531331331331271</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-6.014325452016682</v>
+        <v>-6.958345662407524</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -911,34 +911,34 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.03024546511133203</v>
+        <v>0.04230667805838186</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1328111067063249</v>
+        <v>0.1687007801919856</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.8559365135805147</v>
+        <v>-0.7246048173976746</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0121360063209671</v>
+        <v>0.06995941223218735</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03583958306310669</v>
+        <v>0.02444171289232733</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1465170827534296</v>
+        <v>-0.1515469261466029</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01524987270580663</v>
+        <v>-0.02981171403260093</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1306448589584163</v>
+        <v>0.1570672701527503</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.078909410318606</v>
+        <v>-1.146178428443042</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -956,37 +956,37 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1939979049658634</v>
+        <v>-0.1366818755391422</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2846182839472556</v>
+        <v>-0.1750142656652942</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2773506854400778</v>
+        <v>-0.1274747901520494</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03096514481254395</v>
+        <v>-0.1099795169164244</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7541698914270649</v>
+        <v>0.5078689546094945</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2940837587940858</v>
+        <v>-0.3220252945300709</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.3944703190984067</v>
+        <v>0.06422451910516955</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.1234951327463465</v>
+        <v>0.3893114657905196</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2479111539892746</v>
+        <v>-0.06198631201144565</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8761289397100401</v>
+        <v>-0.7522081345985829</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2992287713242997</v>
+        <v>0.3398290965197098</v>
       </c>
     </row>
     <row r="15">
@@ -997,37 +997,37 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2520363038248069</v>
+        <v>-0.4054631955970956</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0847245226870828</v>
+        <v>-0.1590029876281264</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4324732846868822</v>
+        <v>0.1758221238658733</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01985495637080181</v>
+        <v>0.02945746199263036</v>
       </c>
       <c r="G15" t="n">
-        <v>2.203213206471117</v>
+        <v>0.8478342319935837</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.030459848314877</v>
+        <v>0.1637952423569879</v>
       </c>
       <c r="I15" t="n">
-        <v>-3.361332010940123</v>
+        <v>-0.3714711427907169</v>
       </c>
       <c r="J15" t="n">
-        <v>-1.317305361813769</v>
+        <v>0.7575482664842363</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7035593791441748</v>
+        <v>-0.084303640647092</v>
       </c>
       <c r="L15" t="n">
-        <v>1.034467077463048</v>
+        <v>-1.879805721234389</v>
       </c>
       <c r="M15" t="n">
-        <v>-3.651436379671482</v>
+        <v>1.118471141366099</v>
       </c>
     </row>
     <row r="16">
@@ -1038,37 +1038,37 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.07165041312495693</v>
+        <v>-0.8151648081877648</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0754614711691691</v>
+        <v>-0.3970624250334965</v>
       </c>
       <c r="E16" t="n">
-        <v>1.613200660319637</v>
+        <v>1.593531493071227</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06532232774566171</v>
+        <v>0.1304609186796717</v>
       </c>
       <c r="G16" t="n">
-        <v>2.65035632203272</v>
+        <v>2.706367175311484</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.6355990239165852</v>
+        <v>-0.1402338011813708</v>
       </c>
       <c r="I16" t="n">
-        <v>-2.96021232574537</v>
+        <v>-3.089756073358634</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.172364221455948</v>
+        <v>0.1020274263008385</v>
       </c>
       <c r="K16" t="n">
-        <v>0.524264048285225</v>
+        <v>-0.1611525627603123</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7078120740472403</v>
+        <v>-1.425701416628885</v>
       </c>
       <c r="M16" t="n">
-        <v>-3.157498132590928</v>
+        <v>-1.130861331586144</v>
       </c>
     </row>
     <row r="17">
@@ -1079,37 +1079,37 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.5149527127908158</v>
+        <v>-0.6776215651655793</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2503600598796862</v>
+        <v>-0.09601454979822999</v>
       </c>
       <c r="E17" t="n">
-        <v>2.079476530195649</v>
+        <v>1.600817869273732</v>
       </c>
       <c r="F17" t="n">
-        <v>0.403076661956586</v>
+        <v>0.3064938536990633</v>
       </c>
       <c r="G17" t="n">
-        <v>1.420526101100767</v>
+        <v>1.247092851018703</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.9644488043904007</v>
+        <v>-0.7766211674597</v>
       </c>
       <c r="I17" t="n">
-        <v>-2.131962384835458</v>
+        <v>-2.762626689935024</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.8985635303043373</v>
+        <v>-0.0132398601477741</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5097710947928329</v>
+        <v>-0.06128557859166428</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.5072855109940919</v>
+        <v>-1.839844041346093</v>
       </c>
       <c r="M17" t="n">
-        <v>-4.036084926957502</v>
+        <v>-0.06307990344230563</v>
       </c>
     </row>
     <row r="18">
@@ -1120,37 +1120,37 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1.250592156117517</v>
+        <v>-2.244578921412165</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3439434324685913</v>
+        <v>-1.771860147026433</v>
       </c>
       <c r="E18" t="n">
-        <v>1.035472467374969</v>
+        <v>1.034253113333197</v>
       </c>
       <c r="F18" t="n">
-        <v>1.075343148148458</v>
+        <v>0.9708917912800484</v>
       </c>
       <c r="G18" t="n">
-        <v>1.38723858538962</v>
+        <v>-1.695731686781095</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.594240986926963</v>
+        <v>-1.150781054687765</v>
       </c>
       <c r="I18" t="n">
-        <v>-6.325029837308075</v>
+        <v>-5.668922668686251</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.67760346748056</v>
+        <v>-0.6185451931506004</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.1058341627669495</v>
+        <v>-0.7400711181697074</v>
       </c>
       <c r="L18" t="n">
-        <v>-1.593267346333147</v>
+        <v>-2.334912970592486</v>
       </c>
       <c r="M18" t="n">
-        <v>-4.807630835253553</v>
+        <v>-2.614532489909299</v>
       </c>
     </row>
     <row r="19">
@@ -1161,37 +1161,37 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.2547771130630188</v>
+        <v>-0.4271236777156054</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.05930343962123671</v>
+        <v>-0.2756839086638175</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4813441752406686</v>
+        <v>0.4173144834778058</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2097407843385243</v>
+        <v>0.1643044354897697</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2605970150660576</v>
+        <v>-0.3466460415028123</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.289738448510594</v>
+        <v>-0.1894449594800967</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.888600426066218</v>
+        <v>-1.217952896645441</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.3464399955438851</v>
+        <v>-0.1070761385657463</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0202325194904862</v>
+        <v>-0.1289650951224796</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.2467017794831114</v>
+        <v>-0.3276620759965734</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.133084347808176</v>
+        <v>-0.5386458857125009</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/outperformance.xlsx
+++ b/outputs/outperformance.xlsx
@@ -379,7 +379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,11 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Fixed Income</t>
         </is>
       </c>
@@ -456,37 +461,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.1014498015221799</v>
+        <v>-0.1489810950416438</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.004298632242113798</v>
+        <v>-0.2043474562481407</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1764483179748445</v>
+        <v>-0.2547938095604285</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.03704488548387895</v>
+        <v>-0.0283171465889092</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5424933017368545</v>
+        <v>-1.561687929733194</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.3483997890283307</v>
+        <v>0.2521240374853275</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02882171812868239</v>
+        <v>-0.07928124633826795</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3724078955536167</v>
+        <v>0.02041826591931516</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.06198631201144565</v>
+        <v>0.02378011117973977</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.95748049505588</v>
+        <v>-0.2098342518997854</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3398290965197098</v>
+        <v>-0.5453174658749476</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.260637167218768</v>
       </c>
     </row>
     <row r="3">
@@ -497,37 +505,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.3251547915878432</v>
+        <v>-0.4062303152217909</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1481789530726816</v>
+        <v>-0.03086517683768375</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1280136405857694</v>
+        <v>-0.2300319671529607</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1239553757617533</v>
+        <v>-0.03032195891464575</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8941861805673083</v>
+        <v>-1.186312698696654</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03814114661730883</v>
+        <v>0.3629622412102476</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4251959275780741</v>
+        <v>-0.5040763229969668</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8773647496340542</v>
+        <v>0.6147778012059749</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.084303640647092</v>
+        <v>-0.2386391904336048</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.808591867838291</v>
+        <v>-2.109982518704936</v>
       </c>
       <c r="M3" t="n">
-        <v>1.118471141366099</v>
+        <v>0.3768739117126277</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.8037272180612992</v>
       </c>
     </row>
     <row r="4">
@@ -538,37 +549,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.7909427573011025</v>
+        <v>-0.7169975486779477</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.09200447355101615</v>
+        <v>-0.2946698798083034</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.7072248548488091</v>
+        <v>-0.06149789202139089</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04204534001296334</v>
+        <v>0.01091433704255712</v>
       </c>
       <c r="G4" t="n">
-        <v>2.377435877601563</v>
+        <v>0.306022683792049</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.2360825738701717</v>
+        <v>0.1005380592722608</v>
       </c>
       <c r="I4" t="n">
-        <v>-3.068242518174258</v>
+        <v>-3.047512040033329</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1306452463718342</v>
+        <v>-0.1497267621519438</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1611525627603123</v>
+        <v>-0.02892383927239406</v>
       </c>
       <c r="L4" t="n">
-        <v>-3.816099869890487</v>
+        <v>-2.592559864161619</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.130861331586144</v>
+        <v>0.2672110784188562</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.7978651073472509</v>
       </c>
     </row>
     <row r="5">
@@ -579,37 +593,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.619462737100814</v>
+        <v>-0.5414142807543174</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3123223774254897</v>
+        <v>-0.007461755146021876</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.3161459340758013</v>
+        <v>-0.08557828813120216</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1168638119744382</v>
+        <v>0.274611466321977</v>
       </c>
       <c r="G5" t="n">
-        <v>1.165558098105889</v>
+        <v>-0.7103281350806441</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.133427336932098</v>
+        <v>-0.1362701662175447</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.787272713319324</v>
+        <v>-2.945418105643589</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1251017220096353</v>
+        <v>-0.08326532583783304</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.06128557859166428</v>
+        <v>-0.2787265467134047</v>
       </c>
       <c r="L5" t="n">
-        <v>-5.406609340606341</v>
+        <v>-4.871307790857954</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.06307990344230563</v>
+        <v>0.7994323085619569</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.604667271479058</v>
       </c>
     </row>
     <row r="6">
@@ -620,37 +637,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2.015829499669683</v>
+        <v>-1.273814175376051</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7949578559213135</v>
+        <v>0.8625605506452008</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.394434082777019</v>
+        <v>-0.3516343311900239</v>
       </c>
       <c r="F6" t="n">
-        <v>1.334930734256413</v>
+        <v>0.8295064829069797</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.57175418577667</v>
+        <v>0.2646541652774737</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.996265866123863</v>
+        <v>-2.295526176009214</v>
       </c>
       <c r="I6" t="n">
-        <v>-5.834707070587831</v>
+        <v>-5.359240583353815</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2345879399825267</v>
+        <v>-0.01152431248113572</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.7400711181697074</v>
+        <v>-1.349267970439772</v>
       </c>
       <c r="L6" t="n">
-        <v>-9.29325863300001</v>
+        <v>-10.56842778552956</v>
       </c>
       <c r="M6" t="n">
-        <v>-2.614532489909299</v>
+        <v>3.943185013355406</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-1.726398582041249</v>
       </c>
     </row>
     <row r="7">
@@ -661,37 +681,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.3848169996572235</v>
+        <v>-0.2142419044454809</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1069831284718319</v>
+        <v>0.1503728058796788</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3072903339198688</v>
+        <v>-0.05601791128669487</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2342638477219571</v>
+        <v>0.1404504118786588</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.322204328610485</v>
+        <v>0.04807982169657055</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.3409918856266996</v>
+        <v>-0.3776253217542895</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.247764610678042</v>
+        <v>-1.049080538168349</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04999113158700405</v>
+        <v>0.007488712061596708</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1289650951224796</v>
+        <v>-0.2382796914939904</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.473840504439615</v>
+        <v>-1.680918564179646</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.5386458857125009</v>
+        <v>0.6853788724589751</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.3174670141187252</v>
       </c>
     </row>
     <row r="8">
@@ -706,37 +729,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.03523207401696232</v>
+        <v>0.01773549883990645</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1707156334231804</v>
+        <v>0.03344697747655328</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.04897352782279507</v>
+        <v>-0.2902820355610058</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07293463143254549</v>
+        <v>-0.01116174402250351</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03462434712735993</v>
+        <v>-0.01692836908134405</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.02637449449825977</v>
+        <v>0.02704656276890775</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.03540280097648716</v>
+        <v>-0.000989563200618839</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.01690357023690286</v>
+        <v>-0.04871881893772213</v>
       </c>
       <c r="K8" t="n">
+        <v>0.02378011117973977</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.1092988668555154</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.007527601204413203</v>
+      </c>
+      <c r="N8" t="n">
         <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>-1.205272360457297</v>
-      </c>
-      <c r="M8" t="n">
-        <v>-0</v>
       </c>
     </row>
     <row r="9">
@@ -747,36 +773,39 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.08030840400925246</v>
+        <v>0.1955532435975876</v>
       </c>
       <c r="D9" t="n">
-        <v>0.307181940700808</v>
+        <v>0.2316634406487302</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.3038357644516427</v>
+        <v>-0.4144248808142237</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09449791376912296</v>
+        <v>-0.02733816106486643</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04635194857372462</v>
+        <v>0.01173841904374701</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1256540957396791</v>
+        <v>-0.05855074679567809</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.05372478478735724</v>
+        <v>-0.08736632778662594</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1198164831498179</v>
+        <v>0.002565935620940141</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.2386391904336048</v>
       </c>
       <c r="L9" t="n">
-        <v>-1.928786146603902</v>
+        <v>-1.274290772393061</v>
       </c>
       <c r="M9" t="n">
+        <v>0.6701319963834163</v>
+      </c>
+      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -788,36 +817,39 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.02422205088666231</v>
+        <v>0.09140145510292352</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3050579514824803</v>
+        <v>0.2905202403063736</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.300756347920036</v>
+        <v>-1.317140112042914</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.172506258692635</v>
+        <v>-0.09078809605400978</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3289312977099215</v>
+        <v>-0.2017371767166316</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.09584877268880089</v>
+        <v>-0.04500878434542416</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02151355518437605</v>
+        <v>0.03521847168395729</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.2326726726726727</v>
+        <v>-0.150905054872121</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-0.02892383927239406</v>
       </c>
       <c r="L10" t="n">
-        <v>-2.390398453261602</v>
+        <v>-2.615659896719902</v>
       </c>
       <c r="M10" t="n">
+        <v>0.9646051872465706</v>
+      </c>
+      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -829,36 +861,39 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.05815882806476527</v>
+        <v>0.1909877564979118</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4083369272237197</v>
+        <v>0.3282389310722448</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.916963803349533</v>
+        <v>-1.224729385953708</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1896300417246252</v>
+        <v>-0.06429085245209593</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.08153475291281358</v>
+        <v>-0.1102521148231073</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.3568061694723975</v>
+        <v>-0.186738143213691</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.02464602338429955</v>
+        <v>-0.0005636085943564948</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.1118618618618612</v>
+        <v>-0.06378229257892326</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0.2787265467134047</v>
       </c>
       <c r="L11" t="n">
-        <v>-3.566765299260248</v>
+        <v>-3.915233991133615</v>
       </c>
       <c r="M11" t="n">
+        <v>1.349852520276009</v>
+      </c>
+      <c r="N11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -870,36 +905,39 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2287494217424826</v>
+        <v>0.8386172526222808</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9769022911051198</v>
+        <v>1.027109951478823</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.428687196110217</v>
+        <v>-0.9211664984126267</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3640389429763641</v>
+        <v>0.3607554133549377</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1239775010044249</v>
+        <v>0.2875776170783487</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.8454848114360983</v>
+        <v>-0.5264940492721689</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1657844019015801</v>
+        <v>-0.4025158197733269</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8531331331331271</v>
+        <v>0.754839523181165</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-1.349267970439772</v>
       </c>
       <c r="L12" t="n">
-        <v>-6.958345662407524</v>
+        <v>-9.061371058999205</v>
       </c>
       <c r="M12" t="n">
+        <v>1.624013827346932</v>
+      </c>
+      <c r="N12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -911,36 +949,39 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.04230667805838186</v>
+        <v>0.1493464753321933</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1687007801919856</v>
+        <v>0.1742557189694822</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.7246048173976746</v>
+        <v>-0.2479797273564791</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06995941223218735</v>
+        <v>0.06583425231915273</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02444171289232733</v>
+        <v>0.05178587098626595</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1515469261466029</v>
+        <v>-0.0922504335250682</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.02981171403260093</v>
+        <v>-0.07035826605024999</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1570672701527503</v>
+        <v>0.1334791526336825</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-0.2382796914939904</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.146178428443042</v>
+        <v>-1.47405577885728</v>
       </c>
       <c r="M13" t="n">
+        <v>0.3066904066269789</v>
+      </c>
+      <c r="N13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -956,37 +997,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.1366818755391422</v>
+        <v>-0.1667165938815502</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1750142656652942</v>
+        <v>-0.237794433724694</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1274747901520494</v>
+        <v>0.03548822600057738</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1099795169164244</v>
+        <v>-0.01715540256640569</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5078689546094945</v>
+        <v>-1.54475956065185</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.3220252945300709</v>
+        <v>0.2250774747164198</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06422451910516955</v>
+        <v>-0.07829168313764912</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3893114657905196</v>
+        <v>0.06913708485703729</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.06198631201144565</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.7522081345985829</v>
+        <v>-0.3191331187553008</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3398290965197098</v>
+        <v>-0.5377898646705344</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.260637167218768</v>
       </c>
     </row>
     <row r="15">
@@ -997,37 +1041,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.4054631955970956</v>
+        <v>-0.6017835588193785</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1590029876281264</v>
+        <v>-0.2625286174864139</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1758221238658733</v>
+        <v>0.184392913661263</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02945746199263036</v>
+        <v>-0.00298379784977932</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8478342319935837</v>
+        <v>-1.198051117740401</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1637952423569879</v>
+        <v>0.4215129880059256</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3714711427907169</v>
+        <v>-0.4167099952103409</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7575482664842363</v>
+        <v>0.6122118655850348</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.084303640647092</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.879805721234389</v>
+        <v>-0.8356917463118756</v>
       </c>
       <c r="M15" t="n">
-        <v>1.118471141366099</v>
+        <v>-0.2932580846707885</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.8037272180612992</v>
       </c>
     </row>
     <row r="16">
@@ -1038,37 +1085,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.8151648081877648</v>
+        <v>-0.8083990037808713</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3970624250334965</v>
+        <v>-0.585190120114677</v>
       </c>
       <c r="E16" t="n">
-        <v>1.593531493071227</v>
+        <v>1.255642220021523</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1304609186796717</v>
+        <v>0.1017024330965669</v>
       </c>
       <c r="G16" t="n">
-        <v>2.706367175311484</v>
+        <v>0.5077598605086806</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1402338011813708</v>
+        <v>0.145546843617685</v>
       </c>
       <c r="I16" t="n">
-        <v>-3.089756073358634</v>
+        <v>-3.082730511717286</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1020274263008385</v>
+        <v>0.001178292720177221</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1611525627603123</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.425701416628885</v>
+        <v>0.02310003255828352</v>
       </c>
       <c r="M16" t="n">
-        <v>-1.130861331586144</v>
+        <v>-0.6973941088277145</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.7978651073472509</v>
       </c>
     </row>
     <row r="17">
@@ -1079,37 +1129,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.6776215651655793</v>
+        <v>-0.7324020372522293</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.09601454979822999</v>
+        <v>-0.3357006862182667</v>
       </c>
       <c r="E17" t="n">
-        <v>1.600817869273732</v>
+        <v>1.139151097822506</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3064938536990633</v>
+        <v>0.3389023187740729</v>
       </c>
       <c r="G17" t="n">
-        <v>1.247092851018703</v>
+        <v>-0.6000760202575367</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.7766211674597</v>
+        <v>0.05046797699614627</v>
       </c>
       <c r="I17" t="n">
-        <v>-2.762626689935024</v>
+        <v>-2.944854497049232</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0132398601477741</v>
+        <v>-0.01948303325890978</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.06128557859166428</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-1.839844041346093</v>
+        <v>-0.9560737997243387</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.06307990344230563</v>
+        <v>-0.5504202117140521</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.604667271479058</v>
       </c>
     </row>
     <row r="18">
@@ -1120,37 +1173,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-2.244578921412165</v>
+        <v>-2.112431427998332</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.771860147026433</v>
+        <v>-0.1645494008336221</v>
       </c>
       <c r="E18" t="n">
-        <v>1.034253113333197</v>
+        <v>0.5695321672226028</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9708917912800484</v>
+        <v>0.468751069552042</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.695731686781095</v>
+        <v>-0.02292345180087502</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.150781054687765</v>
+        <v>-1.769032126737045</v>
       </c>
       <c r="I18" t="n">
-        <v>-5.668922668686251</v>
+        <v>-4.956724763580488</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.6185451931506004</v>
+        <v>-0.7663638356623007</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.7400711181697074</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-2.334912970592486</v>
+        <v>-1.507056726530351</v>
       </c>
       <c r="M18" t="n">
-        <v>-2.614532489909299</v>
+        <v>2.319171186008474</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-1.726398582041249</v>
       </c>
     </row>
     <row r="19">
@@ -1161,37 +1217,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.4271236777156054</v>
+        <v>-0.3635883797776742</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.2756839086638175</v>
+        <v>-0.02388291308980334</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4173144834778058</v>
+        <v>0.1919618160697842</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1643044354897697</v>
+        <v>0.07461615955950603</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3466460415028123</v>
+        <v>-0.003706049289695403</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1894449594800967</v>
+        <v>-0.2853748882292213</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.217952896645441</v>
+        <v>-0.9787222721180988</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.1070761385657463</v>
+        <v>-0.1259904405720858</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.1289650951224796</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.3276620759965734</v>
+        <v>-0.2068627853223666</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.5386458857125009</v>
+        <v>0.3786884658319962</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.3174670141187252</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/outperformance.xlsx
+++ b/outputs/outperformance.xlsx
@@ -461,40 +461,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.1489810950416438</v>
+        <v>-0.2594890654562015</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2043474562481407</v>
+        <v>-0.2934520523824585</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.2547938095604285</v>
+        <v>-0.2494377539355348</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0283171465889092</v>
+        <v>-0.03617483367244573</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.561687929733194</v>
+        <v>0.09003991013025806</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2521240374853275</v>
+        <v>0.1458347287376139</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.07928124633826795</v>
+        <v>-0.1399801602867078</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02041826591931516</v>
+        <v>0.01939071256390057</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02378011117973977</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.2098342518997854</v>
+        <v>-0.2926153968279041</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.5453174658749476</v>
+        <v>-0.05495139749410272</v>
       </c>
       <c r="N2" t="n">
-        <v>0.260637167218768</v>
+        <v>0.3388036330279748</v>
       </c>
     </row>
     <row r="3">
@@ -505,40 +505,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.4062303152217909</v>
+        <v>-0.4185302256558379</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.03086517683768375</v>
+        <v>-0.2234835412280841</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2300319671529607</v>
+        <v>-0.2072920714574322</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.03032195891464575</v>
+        <v>-0.07166315892348649</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.186312698696654</v>
+        <v>0.2788672574637895</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3629622412102476</v>
+        <v>0.1973950443594833</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5040763229969668</v>
+        <v>-0.7127793382414593</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6147778012059749</v>
+        <v>0.6341125469699391</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.2386391904336048</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.109982518704936</v>
+        <v>-1.608942561718531</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3768739117126277</v>
+        <v>0.7896345490914247</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8037272180612992</v>
+        <v>0.8703042820675433</v>
       </c>
     </row>
     <row r="4">
@@ -549,40 +549,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.7169975486779477</v>
+        <v>-1.22006804823917</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2946698798083034</v>
+        <v>0.010570696466361</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.06149789202139089</v>
+        <v>-2.050652521105039</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01091433704255712</v>
+        <v>0.1750662512221364</v>
       </c>
       <c r="G4" t="n">
-        <v>0.306022683792049</v>
+        <v>1.783504520762116</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1005380592722608</v>
+        <v>0.06828100991706487</v>
       </c>
       <c r="I4" t="n">
-        <v>-3.047512040033329</v>
+        <v>-1.090443284667019</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1497267621519438</v>
+        <v>0.3246661265630818</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.02892383927239406</v>
+        <v>-0</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.592559864161619</v>
+        <v>-1.001199160376046</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2672110784188562</v>
+        <v>0.7158355882672631</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.7978651073472509</v>
+        <v>-0.8639221881068608</v>
       </c>
     </row>
     <row r="5">
@@ -593,40 +593,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.5414142807543174</v>
+        <v>-0.9789051338303025</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.007461755146021876</v>
+        <v>0.2832876626337821</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.08557828813120216</v>
+        <v>-2.140514980176671</v>
       </c>
       <c r="F5" t="n">
-        <v>0.274611466321977</v>
+        <v>0.411452656807904</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.7103281350806441</v>
+        <v>1.448833769525207</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1362701662175447</v>
+        <v>-0.5686922471844291</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.945418105643589</v>
+        <v>-1.256765309321006</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.08326532583783304</v>
+        <v>0.6025108545893475</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.2787265467134047</v>
+        <v>-0</v>
       </c>
       <c r="L5" t="n">
-        <v>-4.871307790857954</v>
+        <v>-1.746787450546593</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7994323085619569</v>
+        <v>1.301702462471367</v>
       </c>
       <c r="N5" t="n">
-        <v>0.604667271479058</v>
+        <v>-0.2285659650834222</v>
       </c>
     </row>
     <row r="6">
@@ -637,40 +637,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.273814175376051</v>
+        <v>-1.947080427264786</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8625605506452008</v>
+        <v>1.097773124942438</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.3516343311900239</v>
+        <v>-2.678569806967828</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8295064829069797</v>
+        <v>1.482551069300036</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2646541652774737</v>
+        <v>2.134907188550496</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.295526176009214</v>
+        <v>-1.548182035994453</v>
       </c>
       <c r="I6" t="n">
-        <v>-5.359240583353815</v>
+        <v>-3.824684060090842</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01152431248113572</v>
+        <v>0.8612236576940775</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.349267970439772</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-10.56842778552956</v>
+        <v>-5.650182057401931</v>
       </c>
       <c r="M6" t="n">
-        <v>3.943185013355406</v>
+        <v>4.202965842269197</v>
       </c>
       <c r="N6" t="n">
-        <v>-1.726398582041249</v>
+        <v>-1.653149652953792</v>
       </c>
     </row>
     <row r="7">
@@ -681,40 +681,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.2142419044454809</v>
+        <v>-0.3444362924635327</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1503728058796788</v>
+        <v>0.1681585715117228</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.05601791128669487</v>
+        <v>-1.298318724003343</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1404504118786588</v>
+        <v>0.2359069376360411</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04807982169657055</v>
+        <v>0.3364880421999878</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.3776253217542895</v>
+        <v>-0.249257114077595</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.049080538168349</v>
+        <v>-0.6730524596865569</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007488712061596708</v>
+        <v>0.1520416095900123</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2382796914939904</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.680918564179646</v>
+        <v>-0.919396568622477</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6853788724589751</v>
+        <v>0.7230866621558039</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.3174670141187252</v>
+        <v>-0.3029257110927108</v>
       </c>
     </row>
     <row r="8">
@@ -729,37 +729,37 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01773549883990645</v>
+        <v>0.03468264945443265</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03344697747655328</v>
+        <v>0.02402384500745207</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2902820355610058</v>
+        <v>-0.3495953757225437</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01116174402250351</v>
+        <v>0.02183415705656238</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01692836908134405</v>
+        <v>-0.006850299401198374</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02704656276890775</v>
+        <v>0.004684701668394968</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.000989563200618839</v>
+        <v>-0.02011187388761828</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.04871881893772213</v>
+        <v>-0.0242115835286234</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02378011117973977</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1092988668555154</v>
+        <v>-0.1063643457903465</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.007527601204413203</v>
+        <v>0.02699550074987656</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -773,37 +773,37 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1955532435975876</v>
+        <v>0.2253262209110191</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2316634406487302</v>
+        <v>0.1136597030652758</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.4144248808142237</v>
+        <v>-0.4152909437775469</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02733816106486643</v>
+        <v>0.02095401642685323</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01173841904374701</v>
+        <v>0.05446279599041853</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.05855074679567809</v>
+        <v>-0.04212149311311147</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08736632778662594</v>
+        <v>-0.1534334619483862</v>
       </c>
       <c r="J9" t="n">
-        <v>0.002565935620940141</v>
+        <v>0.04028556482922666</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.2386391904336048</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>-1.274290772393061</v>
+        <v>-0.9621218509655438</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6701319963834163</v>
+        <v>0.6915806363956095</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -817,37 +817,37 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.09140145510292352</v>
+        <v>0.1122520395495311</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2905202403063736</v>
+        <v>0.137652844838152</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.317140112042914</v>
+        <v>-1.644385879891446</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.09078809605400978</v>
+        <v>-0.06439117150823856</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2017371767166316</v>
+        <v>-0.2772284572608367</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.04500878434542416</v>
+        <v>-0.03416341761919085</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03521847168395729</v>
+        <v>0.03198665965268126</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.150905054872121</v>
+        <v>-0.1392669483330781</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.02892383927239406</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>-2.615659896719902</v>
+        <v>-1.788884105880865</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9646051872465706</v>
+        <v>0.9954024011598053</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -861,37 +861,37 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1909877564979118</v>
+        <v>0.2389878252173965</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3282389310722448</v>
+        <v>0.1636148486915047</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.224729385953708</v>
+        <v>-1.651636982109398</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06429085245209593</v>
+        <v>-0.05078685021685899</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1102521148231073</v>
+        <v>-0.1382479055080232</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.186738143213691</v>
+        <v>-0.1118639946266376</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0005636085943564948</v>
+        <v>-0.02071681530078861</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.06378229257892326</v>
+        <v>-0.04300018881633662</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.2787265467134047</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-3.915233991133615</v>
+        <v>-2.605765297647407</v>
       </c>
       <c r="M11" t="n">
-        <v>1.349852520276009</v>
+        <v>1.407403986358935</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -905,37 +905,37 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8386172526222808</v>
+        <v>0.8990615323368752</v>
       </c>
       <c r="D12" t="n">
-        <v>1.027109951478823</v>
+        <v>0.4632329975338321</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.9211664984126267</v>
+        <v>-1.145093050071671</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3607554133549377</v>
+        <v>0.4245736807894576</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2875776170783487</v>
+        <v>0.4386466909671858</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5264940492721689</v>
+        <v>-0.2937527160706956</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4025158197733269</v>
+        <v>-0.5978546100523756</v>
       </c>
       <c r="J12" t="n">
-        <v>0.754839523181165</v>
+        <v>0.8805452787703727</v>
       </c>
       <c r="K12" t="n">
-        <v>-1.349267970439772</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-9.061371058999205</v>
+        <v>-5.768774203058401</v>
       </c>
       <c r="M12" t="n">
-        <v>1.624013827346932</v>
+        <v>1.652283729358433</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -949,37 +949,37 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1493464753321933</v>
+        <v>0.1596310907246765</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1742557189694822</v>
+        <v>0.07834268303374968</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2479797273564791</v>
+        <v>-0.3051681095420896</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06583425231915273</v>
+        <v>0.07691857335908939</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05178587098626595</v>
+        <v>0.07862533823311679</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.0922504335250682</v>
+        <v>-0.05125319195938525</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.07035826605024999</v>
+        <v>-0.1040808282978039</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1334791526336825</v>
+        <v>0.1550415574641953</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.2382796914939904</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.47405577885728</v>
+        <v>-0.9351569015473625</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3066904066269789</v>
+        <v>0.3111619189530186</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -997,40 +997,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.1667165938815502</v>
+        <v>-0.2941717149106342</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.237794433724694</v>
+        <v>-0.3174758973899106</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03548822600057738</v>
+        <v>0.1001576217870089</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01715540256640569</v>
+        <v>-0.05800899072900811</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.54475956065185</v>
+        <v>0.09689020953145643</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2250774747164198</v>
+        <v>0.141150027069219</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.07829168313764912</v>
+        <v>-0.1198682863990895</v>
       </c>
       <c r="J14" t="n">
-        <v>0.06913708485703729</v>
+        <v>0.04360229609252397</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.3191331187553008</v>
+        <v>-0.1862510510375576</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.5377898646705344</v>
+        <v>-0.08194689824397927</v>
       </c>
       <c r="N14" t="n">
-        <v>0.260637167218768</v>
+        <v>0.3388036330279748</v>
       </c>
     </row>
     <row r="15">
@@ -1041,40 +1041,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.6017835588193785</v>
+        <v>-0.6438564465668569</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2625286174864139</v>
+        <v>-0.3371432442933599</v>
       </c>
       <c r="E15" t="n">
-        <v>0.184392913661263</v>
+        <v>0.2079988723201147</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.00298379784977932</v>
+        <v>-0.09261717535033971</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.198051117740401</v>
+        <v>0.224404461473371</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4215129880059256</v>
+        <v>0.2395165374725948</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4167099952103409</v>
+        <v>-0.5593458762930731</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6122118655850348</v>
+        <v>0.5938269821407125</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.8356917463118756</v>
+        <v>-0.6468207107529873</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.2932580846707885</v>
+        <v>0.0980539126958152</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8037272180612992</v>
+        <v>0.8703042820675433</v>
       </c>
     </row>
     <row r="16">
@@ -1085,40 +1085,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.8083990037808713</v>
+        <v>-1.332320087788701</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.585190120114677</v>
+        <v>-0.127082148371791</v>
       </c>
       <c r="E16" t="n">
-        <v>1.255642220021523</v>
+        <v>-0.4062666412135938</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1017024330965669</v>
+        <v>0.239457422730375</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5077598605086806</v>
+        <v>2.060732978022953</v>
       </c>
       <c r="H16" t="n">
-        <v>0.145546843617685</v>
+        <v>0.1024444275362557</v>
       </c>
       <c r="I16" t="n">
-        <v>-3.082730511717286</v>
+        <v>-1.1224299443197</v>
       </c>
       <c r="J16" t="n">
-        <v>0.001178292720177221</v>
+        <v>0.46393307489616</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02310003255828352</v>
+        <v>0.7876849455048192</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.6973941088277145</v>
+        <v>-0.2795668128925421</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.7978651073472509</v>
+        <v>-0.8639221881068608</v>
       </c>
     </row>
     <row r="17">
@@ -1129,40 +1129,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.7324020372522293</v>
+        <v>-1.217892959047699</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3357006862182667</v>
+        <v>0.1196728139422774</v>
       </c>
       <c r="E17" t="n">
-        <v>1.139151097822506</v>
+        <v>-0.4888779980672731</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3389023187740729</v>
+        <v>0.462239507024763</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.6000760202575367</v>
+        <v>1.587081675033231</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05046797699614627</v>
+        <v>-0.4568282525577915</v>
       </c>
       <c r="I17" t="n">
-        <v>-2.944854497049232</v>
+        <v>-1.236048494020218</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.01948303325890978</v>
+        <v>0.6455110434056841</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.9560737997243387</v>
+        <v>0.8589778471008143</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.5504202117140521</v>
+        <v>-0.105701523887568</v>
       </c>
       <c r="N17" t="n">
-        <v>0.604667271479058</v>
+        <v>-0.2285659650834222</v>
       </c>
     </row>
     <row r="18">
@@ -1173,40 +1173,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-2.112431427998332</v>
+        <v>-2.846141959601661</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1645494008336221</v>
+        <v>0.6345401274086058</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5695321672226028</v>
+        <v>-1.533476756896157</v>
       </c>
       <c r="F18" t="n">
-        <v>0.468751069552042</v>
+        <v>1.057977388510578</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.02292345180087502</v>
+        <v>1.69626049758331</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.769032126737045</v>
+        <v>-1.254429319923758</v>
       </c>
       <c r="I18" t="n">
-        <v>-4.956724763580488</v>
+        <v>-3.226829450038467</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.7663638356623007</v>
+        <v>-0.0193216210762952</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-1.507056726530351</v>
+        <v>0.1185921456564696</v>
       </c>
       <c r="M18" t="n">
-        <v>2.319171186008474</v>
+        <v>2.550682112910764</v>
       </c>
       <c r="N18" t="n">
-        <v>-1.726398582041249</v>
+        <v>-1.653149652953792</v>
       </c>
     </row>
     <row r="19">
@@ -1217,40 +1217,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.3635883797776742</v>
+        <v>-0.5040673831882092</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.02388291308980334</v>
+        <v>0.08981588847797307</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1919618160697842</v>
+        <v>-0.9931506144612535</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07461615955950603</v>
+        <v>0.1589883642769518</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.003706049289695403</v>
+        <v>0.2578627039668711</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.2853748882292213</v>
+        <v>-0.1980039221182097</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.9787222721180988</v>
+        <v>-0.568971631388753</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.1259904405720858</v>
+        <v>-0.002999947874183007</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.2068627853223666</v>
+        <v>0.01576033292488555</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3786884658319962</v>
+        <v>0.4119247432027853</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.3174670141187252</v>
+        <v>-0.3029257110927108</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/outperformance.xlsx
+++ b/outputs/outperformance.xlsx
@@ -1,37 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackson\Code\PycharmProjects\ic-portfolio\outputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C4623A-EB2B-4A1C-AA0D-44D7A65570FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Staples</t>
   </si>
@@ -76,13 +59,31 @@
   </si>
   <si>
     <t>Security Selection</t>
+  </si>
+  <si>
+    <t>Pct. Return 1M</t>
+  </si>
+  <si>
+    <t>Pct. Return 3M</t>
+  </si>
+  <si>
+    <t>Pct. Return YTD</t>
+  </si>
+  <si>
+    <t>Pct. Return 1Y</t>
+  </si>
+  <si>
+    <t>Pct. Return Max</t>
+  </si>
+  <si>
+    <t>Pct. Return CAGR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +94,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,29 +135,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -442,384 +433,783 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:14">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>-1.001116284340267</v>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>-0.1300262458263495</v>
+        <v>0.333301846278439</v>
       </c>
       <c r="D2">
-        <v>-1.7453018899477439</v>
+        <v>0.1047662794898696</v>
       </c>
       <c r="E2">
-        <v>0.51297698302709727</v>
+        <v>-0.003871143600851834</v>
       </c>
       <c r="F2">
-        <v>1.9073832400287289</v>
+        <v>-0.195375303427502</v>
       </c>
       <c r="G2">
-        <v>-0.46934568264473442</v>
+        <v>-0.06720815712593686</v>
       </c>
       <c r="H2">
-        <v>-1.4494247773792559</v>
+        <v>-0.4375591970540968</v>
       </c>
       <c r="I2">
-        <v>0.60549847467685014</v>
+        <v>-0.7071343243179291</v>
       </c>
       <c r="J2">
+        <v>0.07008834440239481</v>
+      </c>
+      <c r="L2">
+        <v>0.0838827215168263</v>
+      </c>
+      <c r="M2">
+        <v>0.7328154226299669</v>
+      </c>
+      <c r="N2">
+        <v>0.7433368373446214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>-0.3495874028977645</v>
+      </c>
+      <c r="D3">
+        <v>-0.142667247810368</v>
+      </c>
+      <c r="E3">
+        <v>0.4202045990636309</v>
+      </c>
+      <c r="F3">
+        <v>-0.114913944102341</v>
+      </c>
+      <c r="G3">
+        <v>-0.100205168112742</v>
+      </c>
+      <c r="H3">
+        <v>0.3348277304640038</v>
+      </c>
+      <c r="I3">
+        <v>-1.146674170884545</v>
+      </c>
+      <c r="J3">
+        <v>0.3931120092717008</v>
+      </c>
+      <c r="L3">
+        <v>-0.3029827787002206</v>
+      </c>
+      <c r="M3">
+        <v>0.8786027451593926</v>
+      </c>
+      <c r="N3">
+        <v>0.5941696461356322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>-1.340973523832595</v>
+      </c>
+      <c r="D4">
+        <v>-0.08837060463006585</v>
+      </c>
+      <c r="E4">
+        <v>-0.1376685765786796</v>
+      </c>
+      <c r="F4">
+        <v>0.2186578477797768</v>
+      </c>
+      <c r="G4">
+        <v>2.18385135995366</v>
+      </c>
+      <c r="H4">
+        <v>0.247294079453847</v>
+      </c>
+      <c r="I4">
+        <v>-1.832128658560259</v>
+      </c>
+      <c r="J4">
+        <v>0.4330710750740652</v>
+      </c>
+      <c r="L4">
+        <v>1.25169605454052</v>
+      </c>
+      <c r="M4">
+        <v>1.361752352796632</v>
+      </c>
+      <c r="N4">
+        <v>-0.3982406022157953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>-1.461873758288866</v>
+      </c>
+      <c r="D5">
+        <v>-0.06977468308955359</v>
+      </c>
+      <c r="E5">
+        <v>-0.3681796075100021</v>
+      </c>
+      <c r="F5">
+        <v>0.3073697028225008</v>
+      </c>
+      <c r="G5">
+        <v>1.733514323387478</v>
+      </c>
+      <c r="H5">
+        <v>0.0705603686855405</v>
+      </c>
+      <c r="I5">
+        <v>-1.947362417787145</v>
+      </c>
+      <c r="J5">
+        <v>0.4267539390863562</v>
+      </c>
+      <c r="L5">
+        <v>1.219270745722873</v>
+      </c>
+      <c r="M5">
+        <v>1.529096021829994</v>
+      </c>
+      <c r="N5">
+        <v>-0.1094985189743193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>-1.817157114913473</v>
+      </c>
+      <c r="D6">
+        <v>0.8979400565865268</v>
+      </c>
+      <c r="E6">
+        <v>-1.198957743982064</v>
+      </c>
+      <c r="F6">
+        <v>0.9057850321297283</v>
+      </c>
+      <c r="G6">
+        <v>1.434859213258802</v>
+      </c>
+      <c r="H6">
+        <v>-0.8217644873295815</v>
+      </c>
+      <c r="I6">
+        <v>-7.391822062276734</v>
+      </c>
+      <c r="J6">
+        <v>0.5316941887381748</v>
+      </c>
+      <c r="L6">
+        <v>1.749238718308259</v>
+      </c>
+      <c r="M6">
+        <v>4.236903033944279</v>
+      </c>
+      <c r="N6">
+        <v>-1.214706021319816</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>-0.3060679774819624</v>
+      </c>
+      <c r="D7">
+        <v>0.1287186305521986</v>
+      </c>
+      <c r="E7">
+        <v>-0.3573023961052095</v>
+      </c>
+      <c r="F7">
+        <v>0.1220408975106692</v>
+      </c>
+      <c r="G7">
+        <v>0.192289080747993</v>
+      </c>
+      <c r="H7">
+        <v>-0.1169575524620461</v>
+      </c>
+      <c r="I7">
+        <v>-1.195651150755608</v>
+      </c>
+      <c r="J7">
+        <v>0.0891094957074603</v>
+      </c>
+      <c r="L7">
+        <v>0.2679667755531254</v>
+      </c>
+      <c r="M7">
+        <v>0.6686211265636064</v>
+      </c>
+      <c r="N7">
+        <v>-0.2108533948817481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>0.1699999999999995</v>
+      </c>
+      <c r="D8">
+        <v>0.05468661238401843</v>
+      </c>
+      <c r="E8">
+        <v>0.1174654752233958</v>
+      </c>
+      <c r="F8">
+        <v>-0.04264069264069272</v>
+      </c>
+      <c r="G8">
+        <v>-0.09890498057223571</v>
+      </c>
+      <c r="H8">
+        <v>0.03887583589372853</v>
+      </c>
+      <c r="I8">
+        <v>-1.002402915385493</v>
+      </c>
+      <c r="J8">
+        <v>-0.009655499367888674</v>
+      </c>
+      <c r="K8">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>2.2070219770220678</v>
-      </c>
-      <c r="L2">
-        <v>1.244165619711709</v>
-      </c>
-      <c r="M2">
-        <v>-0.24951094455857009</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>0.12624453288519549</v>
-      </c>
-      <c r="C3">
-        <v>-0.18764033970301619</v>
-      </c>
-      <c r="D3">
-        <v>-1.1292703057539051</v>
-      </c>
-      <c r="E3">
-        <v>1.101379586260157E-2</v>
-      </c>
-      <c r="F3">
-        <v>0.19378785243868779</v>
-      </c>
-      <c r="G3">
-        <v>-4.7887942243998553E-2</v>
-      </c>
-      <c r="H3">
-        <v>-0.14009888115868549</v>
-      </c>
-      <c r="I3">
-        <v>-8.4349731140670164E-3</v>
-      </c>
-      <c r="J3">
+      <c r="L8">
+        <v>0.2671357748280828</v>
+      </c>
+      <c r="M8">
+        <v>0.6693693693693696</v>
+      </c>
+      <c r="N8">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>1.31035895327054</v>
-      </c>
-      <c r="L3">
-        <v>1.4820084042504871</v>
-      </c>
-      <c r="M3">
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>0.08805702465199977</v>
+      </c>
+      <c r="D9">
+        <v>0.03738237783791026</v>
+      </c>
+      <c r="E9">
+        <v>0.04118286680584916</v>
+      </c>
+      <c r="F9">
+        <v>-0.01739366017316053</v>
+      </c>
+      <c r="G9">
+        <v>-0.08285998352101685</v>
+      </c>
+      <c r="H9">
+        <v>0.02510347825591882</v>
+      </c>
+      <c r="I9">
+        <v>-1.060300370811868</v>
+      </c>
+      <c r="J9">
+        <v>0.08385671958043586</v>
+      </c>
+      <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="L9">
+        <v>0.1061647153635061</v>
+      </c>
+      <c r="M9">
+        <v>0.3427333530990995</v>
+      </c>
+      <c r="N9">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>0.2298175815360027</v>
+      </c>
+      <c r="D10">
+        <v>0.1294058239310746</v>
+      </c>
+      <c r="E10">
+        <v>-0.3248694238050366</v>
+      </c>
+      <c r="F10">
+        <v>0.01899382405627694</v>
+      </c>
+      <c r="G10">
+        <v>0.04526516934334243</v>
+      </c>
+      <c r="H10">
+        <v>0.05506176458268582</v>
+      </c>
+      <c r="I10">
+        <v>-0.7779264919091174</v>
+      </c>
+      <c r="J10">
+        <v>0.008266199530815987</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0.6585457139549055</v>
+      </c>
+      <c r="M10">
+        <v>1.201897306540546</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>0.2863091675560025</v>
+      </c>
+      <c r="D11">
+        <v>0.1503970100571869</v>
+      </c>
+      <c r="E11">
+        <v>-0.2592675055418362</v>
+      </c>
+      <c r="F11">
+        <v>0.001442872792207517</v>
+      </c>
+      <c r="G11">
+        <v>0.01161633030378032</v>
+      </c>
+      <c r="H11">
+        <v>0.07686276975040685</v>
+      </c>
+      <c r="I11">
+        <v>-0.9825972992401756</v>
+      </c>
+      <c r="J11">
+        <v>0.0541114219532241</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.7690790095442221</v>
+      </c>
+      <c r="M11">
+        <v>1.361370216477484</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>1.050666340875991</v>
+      </c>
+      <c r="D12">
+        <v>0.3357999922616934</v>
+      </c>
+      <c r="E12">
+        <v>-0.2034882899236368</v>
+      </c>
+      <c r="F12">
+        <v>-0.2507862729285713</v>
+      </c>
+      <c r="G12">
+        <v>-0.2887614447873537</v>
+      </c>
+      <c r="H12">
+        <v>0.2675164989342126</v>
+      </c>
+      <c r="I12">
+        <v>-4.350318075649916</v>
+      </c>
+      <c r="J12">
+        <v>0.5573197030598932</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1.697471851307851</v>
+      </c>
+      <c r="M12">
+        <v>1.595644029117111</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>0.1771337952503018</v>
+      </c>
+      <c r="D13">
+        <v>0.05383680837759177</v>
+      </c>
+      <c r="E13">
+        <v>-0.0461747198540006</v>
+      </c>
+      <c r="F13">
+        <v>-0.04330472832019296</v>
+      </c>
+      <c r="G13">
+        <v>-0.0483344193137189</v>
+      </c>
+      <c r="H13">
+        <v>0.04432934066922221</v>
+      </c>
+      <c r="I13">
+        <v>-0.7117795931667071</v>
+      </c>
+      <c r="J13">
+        <v>0.09282952836581203</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.2614716859980615</v>
+      </c>
+      <c r="M13">
+        <v>0.279866942383479</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>-1.1273608172254621</v>
-      </c>
-      <c r="C4">
-        <v>5.7614093876666717E-2</v>
-      </c>
-      <c r="D4">
-        <v>-0.61603158419383974</v>
-      </c>
-      <c r="E4">
-        <v>0.50196318716449573</v>
-      </c>
-      <c r="F4">
-        <v>1.7135953875900409</v>
-      </c>
-      <c r="G4">
-        <v>-0.42145774040073591</v>
-      </c>
-      <c r="H4">
-        <v>-1.3093258962205701</v>
-      </c>
-      <c r="I4">
-        <v>0.61393344779091719</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0.89666302375152829</v>
-      </c>
-      <c r="L4">
-        <v>-0.23784278453877741</v>
-      </c>
-      <c r="M4">
-        <v>-0.24951094455857009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3">
-        <v>-100.1116284340267</v>
-      </c>
-      <c r="C7" s="3">
-        <v>12.624453288519549</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-112.73608172254622</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3">
-        <v>-13.002624582634951</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-18.764033970301618</v>
-      </c>
-      <c r="D8" s="3">
-        <v>5.7614093876666717</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3">
-        <v>-174.53018899477439</v>
-      </c>
-      <c r="C9" s="3">
-        <v>-112.9270305753905</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-61.603158419383973</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3">
-        <v>51.297698302709726</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1.101379586260157</v>
-      </c>
-      <c r="D10" s="3">
-        <v>50.196318716449575</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3">
-        <v>190.7383240028729</v>
-      </c>
-      <c r="C11" s="3">
-        <v>19.37878524386878</v>
-      </c>
-      <c r="D11" s="3">
-        <v>171.3595387590041</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3">
-        <v>-46.934568264473441</v>
-      </c>
-      <c r="C12" s="3">
-        <v>-4.7887942243998554</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-42.14577404007359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3">
-        <v>-144.9424777379256</v>
-      </c>
-      <c r="C13" s="3">
-        <v>-14.009888115868549</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-130.93258962205701</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3">
-        <v>60.549847467685012</v>
-      </c>
-      <c r="C14" s="3">
-        <v>-0.84349731140670159</v>
-      </c>
-      <c r="D14" s="3">
-        <v>61.39334477909172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="3">
-        <v>220.70219770220677</v>
-      </c>
-      <c r="C16" s="3">
-        <v>131.03589532705399</v>
-      </c>
-      <c r="D16" s="3">
-        <v>89.666302375152824</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="3">
-        <v>124.41656197117091</v>
-      </c>
-      <c r="C17" s="3">
-        <v>148.20084042504871</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-23.784278453877743</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="3">
-        <v>-24.95109445585701</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-24.95109445585701</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <f>SUM(B7:B18)</f>
-        <v>143.23204697695326</v>
-      </c>
-      <c r="C19" s="3">
-        <f t="shared" ref="C19:D19" si="0">SUM(C7:C18)</f>
-        <v>161.00810967338396</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="0"/>
-        <v>-17.776062696430646</v>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>0.1633018462784395</v>
+      </c>
+      <c r="D14">
+        <v>0.05007966710585118</v>
+      </c>
+      <c r="E14">
+        <v>-0.1213366188242476</v>
+      </c>
+      <c r="F14">
+        <v>-0.1527346107868092</v>
+      </c>
+      <c r="G14">
+        <v>0.03169682344629884</v>
+      </c>
+      <c r="H14">
+        <v>-0.4764350329478253</v>
+      </c>
+      <c r="I14">
+        <v>0.2952685910675643</v>
+      </c>
+      <c r="J14">
+        <v>0.07974384377028348</v>
+      </c>
+      <c r="L14">
+        <v>-0.1832530533112565</v>
+      </c>
+      <c r="M14">
+        <v>0.06344605326059727</v>
+      </c>
+      <c r="N14">
+        <v>0.7433368373446214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>-0.4376444275497643</v>
+      </c>
+      <c r="D15">
+        <v>-0.1800496256482783</v>
+      </c>
+      <c r="E15">
+        <v>0.3790217322577817</v>
+      </c>
+      <c r="F15">
+        <v>-0.09752028392918044</v>
+      </c>
+      <c r="G15">
+        <v>-0.0173451845917252</v>
+      </c>
+      <c r="H15">
+        <v>0.309724252208085</v>
+      </c>
+      <c r="I15">
+        <v>-0.08637380007267703</v>
+      </c>
+      <c r="J15">
+        <v>0.3092552896912649</v>
+      </c>
+      <c r="L15">
+        <v>-0.4091474940637267</v>
+      </c>
+      <c r="M15">
+        <v>0.5358693920602932</v>
+      </c>
+      <c r="N15">
+        <v>0.5941696461356322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>-1.570791105368597</v>
+      </c>
+      <c r="D16">
+        <v>-0.2177764285611404</v>
+      </c>
+      <c r="E16">
+        <v>0.187200847226357</v>
+      </c>
+      <c r="F16">
+        <v>0.1996640237234999</v>
+      </c>
+      <c r="G16">
+        <v>2.138586190610318</v>
+      </c>
+      <c r="H16">
+        <v>0.1922323148711612</v>
+      </c>
+      <c r="I16">
+        <v>-1.054202166651142</v>
+      </c>
+      <c r="J16">
+        <v>0.4248048755432492</v>
+      </c>
+      <c r="L16">
+        <v>0.5931503405856146</v>
+      </c>
+      <c r="M16">
+        <v>0.1598550462560864</v>
+      </c>
+      <c r="N16">
+        <v>-0.3982406022157953</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>-1.748182925844869</v>
+      </c>
+      <c r="D17">
+        <v>-0.2201716931467405</v>
+      </c>
+      <c r="E17">
+        <v>-0.1089121019681659</v>
+      </c>
+      <c r="F17">
+        <v>0.3059268300302933</v>
+      </c>
+      <c r="G17">
+        <v>1.721897993083698</v>
+      </c>
+      <c r="H17">
+        <v>-0.006302401064866348</v>
+      </c>
+      <c r="I17">
+        <v>-0.9647651185469696</v>
+      </c>
+      <c r="J17">
+        <v>0.3726425171331321</v>
+      </c>
+      <c r="L17">
+        <v>0.4501917361786509</v>
+      </c>
+      <c r="M17">
+        <v>0.1677258053525106</v>
+      </c>
+      <c r="N17">
+        <v>-0.1094985189743193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>-2.867823455789464</v>
+      </c>
+      <c r="D18">
+        <v>0.5621400643248333</v>
+      </c>
+      <c r="E18">
+        <v>-0.9954694540584275</v>
+      </c>
+      <c r="F18">
+        <v>1.1565713050583</v>
+      </c>
+      <c r="G18">
+        <v>1.723620658046156</v>
+      </c>
+      <c r="H18">
+        <v>-1.089280986263794</v>
+      </c>
+      <c r="I18">
+        <v>-3.041503986626818</v>
+      </c>
+      <c r="J18">
+        <v>-0.02562551432171845</v>
+      </c>
+      <c r="L18">
+        <v>0.05176686700040789</v>
+      </c>
+      <c r="M18">
+        <v>2.641259004827168</v>
+      </c>
+      <c r="N18">
+        <v>-1.214706021319816</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>-0.4832017727322642</v>
+      </c>
+      <c r="D19">
+        <v>0.07488182217460679</v>
+      </c>
+      <c r="E19">
+        <v>-0.3111276762512089</v>
+      </c>
+      <c r="F19">
+        <v>0.1653456258308622</v>
+      </c>
+      <c r="G19">
+        <v>0.2406235000617119</v>
+      </c>
+      <c r="H19">
+        <v>-0.1612868931312683</v>
+      </c>
+      <c r="I19">
+        <v>-0.4838715575889007</v>
+      </c>
+      <c r="J19">
+        <v>-0.003720032658351732</v>
+      </c>
+      <c r="L19">
+        <v>0.006495089555063893</v>
+      </c>
+      <c r="M19">
+        <v>0.3887541841801274</v>
+      </c>
+      <c r="N19">
+        <v>-0.2108533948817481</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2"/>
-    <mergeCell ref="A3"/>
-    <mergeCell ref="A4"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>